--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il17c-Il17re.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il17c-Il17re.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3020803333333333</v>
+        <v>0.8471436666666667</v>
       </c>
       <c r="H2">
-        <v>0.9062410000000001</v>
+        <v>2.541431</v>
       </c>
       <c r="I2">
-        <v>0.09157222970918595</v>
+        <v>0.1466263936520443</v>
       </c>
       <c r="J2">
-        <v>0.09157222970918596</v>
+        <v>0.1466263936520442</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.08759</v>
+        <v>0.1206223333333333</v>
       </c>
       <c r="N2">
-        <v>0.26277</v>
+        <v>0.361867</v>
       </c>
       <c r="O2">
-        <v>0.3835397697914812</v>
+        <v>0.6991004949596035</v>
       </c>
       <c r="P2">
-        <v>0.3835397697914812</v>
+        <v>0.6991004949596034</v>
       </c>
       <c r="Q2">
-        <v>0.02645921639666667</v>
+        <v>0.1021844457418889</v>
       </c>
       <c r="R2">
-        <v>0.23813294757</v>
+        <v>0.9196600116770001</v>
       </c>
       <c r="S2">
-        <v>0.03512159190195381</v>
+        <v>0.1025065843762858</v>
       </c>
       <c r="T2">
-        <v>0.03512159190195382</v>
+        <v>0.1025065843762858</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0.8471436666666667</v>
+      </c>
+      <c r="H3">
+        <v>2.541431</v>
+      </c>
+      <c r="I3">
+        <v>0.1466263936520443</v>
+      </c>
+      <c r="J3">
+        <v>0.1466263936520442</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="L3">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G3">
-        <v>0.3020803333333333</v>
-      </c>
-      <c r="H3">
-        <v>0.9062410000000001</v>
-      </c>
-      <c r="I3">
-        <v>0.09157222970918595</v>
-      </c>
-      <c r="J3">
-        <v>0.09157222970918596</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
       <c r="M3">
-        <v>0.1206223333333333</v>
+        <v>0.003532666666666667</v>
       </c>
       <c r="N3">
-        <v>0.361867</v>
+        <v>0.010598</v>
       </c>
       <c r="O3">
-        <v>0.5281820066032421</v>
+        <v>0.02047455845816799</v>
       </c>
       <c r="P3">
-        <v>0.5281820066032421</v>
+        <v>0.02047455845816799</v>
       </c>
       <c r="Q3">
-        <v>0.03643763466077778</v>
+        <v>0.002992676193111111</v>
       </c>
       <c r="R3">
-        <v>0.327938711947</v>
+        <v>0.026934085738</v>
       </c>
       <c r="S3">
-        <v>0.04836680403693085</v>
+        <v>0.003002110668339133</v>
       </c>
       <c r="T3">
-        <v>0.04836680403693087</v>
+        <v>0.003002110668339132</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3020803333333333</v>
+        <v>0.8471436666666667</v>
       </c>
       <c r="H4">
-        <v>0.9062410000000001</v>
+        <v>2.541431</v>
       </c>
       <c r="I4">
-        <v>0.09157222970918595</v>
+        <v>0.1466263936520443</v>
       </c>
       <c r="J4">
-        <v>0.09157222970918596</v>
+        <v>0.1466263936520442</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.0007876666666666665</v>
+        <v>0.034333</v>
       </c>
       <c r="N4">
-        <v>0.002363</v>
+        <v>0.102999</v>
       </c>
       <c r="O4">
-        <v>0.003449040895145069</v>
+        <v>0.1989865112882473</v>
       </c>
       <c r="P4">
-        <v>0.003449040895145069</v>
+        <v>0.1989865112882473</v>
       </c>
       <c r="Q4">
-        <v>0.0002379386092222222</v>
+        <v>0.02908498350766666</v>
       </c>
       <c r="R4">
-        <v>0.002141447483</v>
+        <v>0.261764851569</v>
       </c>
       <c r="S4">
-        <v>0.0003158363651266006</v>
+        <v>0.0291766745355975</v>
       </c>
       <c r="T4">
-        <v>0.0003158363651266007</v>
+        <v>0.02917667453559749</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,25 +717,25 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3020803333333333</v>
+        <v>0.8471436666666667</v>
       </c>
       <c r="H5">
-        <v>0.9062410000000001</v>
+        <v>2.541431</v>
       </c>
       <c r="I5">
-        <v>0.09157222970918595</v>
+        <v>0.1466263936520443</v>
       </c>
       <c r="J5">
-        <v>0.09157222970918596</v>
+        <v>0.1466263936520442</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,33 +744,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.01905733333333333</v>
+        <v>0.01405133333333333</v>
       </c>
       <c r="N5">
-        <v>0.057172</v>
+        <v>0.042154</v>
       </c>
       <c r="O5">
-        <v>0.08344839867001012</v>
+        <v>0.08143843529398129</v>
       </c>
       <c r="P5">
-        <v>0.08344839867001012</v>
+        <v>0.08143843529398127</v>
       </c>
       <c r="Q5">
-        <v>0.005756845605777778</v>
+        <v>0.01190349804155556</v>
       </c>
       <c r="R5">
-        <v>0.05181161045200001</v>
+        <v>0.107131482374</v>
       </c>
       <c r="S5">
-        <v>0.007641555931873894</v>
+        <v>0.01194102407182184</v>
       </c>
       <c r="T5">
-        <v>0.007641555931873895</v>
+        <v>0.01194102407182183</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -788,46 +788,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.3020803333333333</v>
+        <v>0.4207993333333333</v>
       </c>
       <c r="H6">
-        <v>0.9062410000000001</v>
+        <v>1.262398</v>
       </c>
       <c r="I6">
-        <v>0.09157222970918595</v>
+        <v>0.0728333234675871</v>
       </c>
       <c r="J6">
-        <v>0.09157222970918596</v>
+        <v>0.0728333234675871</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0003153333333333334</v>
+        <v>0.1206223333333333</v>
       </c>
       <c r="N6">
-        <v>0.0009460000000000001</v>
+        <v>0.361867</v>
       </c>
       <c r="O6">
-        <v>0.001380784040121556</v>
+        <v>0.6991004949596035</v>
       </c>
       <c r="P6">
-        <v>0.001380784040121556</v>
+        <v>0.6991004949596034</v>
       </c>
       <c r="Q6">
-        <v>9.525599844444445E-05</v>
+        <v>0.05075779745177778</v>
       </c>
       <c r="R6">
-        <v>0.0008573039860000002</v>
+        <v>0.456820177066</v>
       </c>
       <c r="S6">
-        <v>0.0001264414733007889</v>
+        <v>0.05091781248574304</v>
       </c>
       <c r="T6">
-        <v>0.000126441473300789</v>
+        <v>0.05091781248574304</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -856,40 +856,40 @@
         <v>1.262398</v>
       </c>
       <c r="I7">
-        <v>0.1275605491700518</v>
+        <v>0.0728333234675871</v>
       </c>
       <c r="J7">
-        <v>0.1275605491700518</v>
+        <v>0.0728333234675871</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.08759</v>
+        <v>0.003532666666666667</v>
       </c>
       <c r="N7">
-        <v>0.26277</v>
+        <v>0.010598</v>
       </c>
       <c r="O7">
-        <v>0.3835397697914812</v>
+        <v>0.02047455845816799</v>
       </c>
       <c r="P7">
-        <v>0.3835397697914812</v>
+        <v>0.02047455845816799</v>
       </c>
       <c r="Q7">
-        <v>0.03685781360666666</v>
+        <v>0.001486543778222222</v>
       </c>
       <c r="R7">
-        <v>0.33172032246</v>
+        <v>0.013378894004</v>
       </c>
       <c r="S7">
-        <v>0.04892454366315659</v>
+        <v>0.001491230139039771</v>
       </c>
       <c r="T7">
-        <v>0.04892454366315659</v>
+        <v>0.001491230139039771</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -918,40 +918,40 @@
         <v>1.262398</v>
       </c>
       <c r="I8">
-        <v>0.1275605491700518</v>
+        <v>0.0728333234675871</v>
       </c>
       <c r="J8">
-        <v>0.1275605491700518</v>
+        <v>0.0728333234675871</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.1206223333333333</v>
+        <v>0.034333</v>
       </c>
       <c r="N8">
-        <v>0.361867</v>
+        <v>0.102999</v>
       </c>
       <c r="O8">
-        <v>0.5281820066032421</v>
+        <v>0.1989865112882473</v>
       </c>
       <c r="P8">
-        <v>0.5281820066032421</v>
+        <v>0.1989865112882473</v>
       </c>
       <c r="Q8">
-        <v>0.05075779745177778</v>
+        <v>0.01444730351133333</v>
       </c>
       <c r="R8">
-        <v>0.456820177066</v>
+        <v>0.130025731602</v>
       </c>
       <c r="S8">
-        <v>0.06737518682404949</v>
+        <v>0.01449284894234359</v>
       </c>
       <c r="T8">
-        <v>0.06737518682404949</v>
+        <v>0.01449284894234359</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -980,10 +980,10 @@
         <v>1.262398</v>
       </c>
       <c r="I9">
-        <v>0.1275605491700518</v>
+        <v>0.0728333234675871</v>
       </c>
       <c r="J9">
-        <v>0.1275605491700518</v>
+        <v>0.0728333234675871</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,95 +992,95 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.0007876666666666665</v>
+        <v>0.01405133333333333</v>
       </c>
       <c r="N9">
-        <v>0.002363</v>
+        <v>0.042154</v>
       </c>
       <c r="O9">
-        <v>0.003449040895145069</v>
+        <v>0.08143843529398129</v>
       </c>
       <c r="P9">
-        <v>0.003449040895145069</v>
+        <v>0.08143843529398127</v>
       </c>
       <c r="Q9">
-        <v>0.0003314496082222221</v>
+        <v>0.005912791699111111</v>
       </c>
       <c r="R9">
-        <v>0.002983046473999999</v>
+        <v>0.053215125292</v>
       </c>
       <c r="S9">
-        <v>0.0004399615506946721</v>
+        <v>0.005931431900460701</v>
       </c>
       <c r="T9">
-        <v>0.0004399615506946721</v>
+        <v>0.0059314319004607</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4207993333333333</v>
+        <v>2.604514666666667</v>
       </c>
       <c r="H10">
-        <v>1.262398</v>
+        <v>7.813544</v>
       </c>
       <c r="I10">
-        <v>0.1275605491700518</v>
+        <v>0.4507979080925544</v>
       </c>
       <c r="J10">
-        <v>0.1275605491700518</v>
+        <v>0.4507979080925543</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.01905733333333333</v>
+        <v>0.1206223333333333</v>
       </c>
       <c r="N10">
-        <v>0.057172</v>
+        <v>0.361867</v>
       </c>
       <c r="O10">
-        <v>0.08344839867001012</v>
+        <v>0.6991004949596035</v>
       </c>
       <c r="P10">
-        <v>0.08344839867001012</v>
+        <v>0.6991004949596034</v>
       </c>
       <c r="Q10">
-        <v>0.008019313161777777</v>
+        <v>0.3141626362942223</v>
       </c>
       <c r="R10">
-        <v>0.072173818456</v>
+        <v>2.827463726648</v>
       </c>
       <c r="S10">
-        <v>0.01064472356170791</v>
+        <v>0.3151530406742586</v>
       </c>
       <c r="T10">
-        <v>0.01064472356170791</v>
+        <v>0.3151530406742585</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.604514666666667</v>
+      </c>
+      <c r="H11">
+        <v>7.813544</v>
+      </c>
+      <c r="I11">
+        <v>0.4507979080925544</v>
+      </c>
+      <c r="J11">
+        <v>0.4507979080925543</v>
+      </c>
+      <c r="K11">
         <v>2</v>
       </c>
-      <c r="F11">
+      <c r="L11">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G11">
-        <v>0.4207993333333333</v>
-      </c>
-      <c r="H11">
-        <v>1.262398</v>
-      </c>
-      <c r="I11">
-        <v>0.1275605491700518</v>
-      </c>
-      <c r="J11">
-        <v>0.1275605491700518</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M11">
-        <v>0.0003153333333333334</v>
+        <v>0.003532666666666667</v>
       </c>
       <c r="N11">
-        <v>0.0009460000000000001</v>
+        <v>0.010598</v>
       </c>
       <c r="O11">
-        <v>0.001380784040121556</v>
+        <v>0.02047455845816799</v>
       </c>
       <c r="P11">
-        <v>0.001380784040121556</v>
+        <v>0.02047455845816799</v>
       </c>
       <c r="Q11">
-        <v>0.0001326920564444445</v>
+        <v>0.009200882145777778</v>
       </c>
       <c r="R11">
-        <v>0.001194228508</v>
+        <v>0.08280793931200001</v>
       </c>
       <c r="S11">
-        <v>0.0001761335704431485</v>
+        <v>0.009229888122060846</v>
       </c>
       <c r="T11">
-        <v>0.0001761335704431485</v>
+        <v>0.009229888122060844</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,25 +1151,25 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6232970000000001</v>
+        <v>2.604514666666667</v>
       </c>
       <c r="H12">
-        <v>1.869891</v>
+        <v>7.813544</v>
       </c>
       <c r="I12">
-        <v>0.1889454220048966</v>
+        <v>0.4507979080925544</v>
       </c>
       <c r="J12">
-        <v>0.1889454220048966</v>
+        <v>0.4507979080925543</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,28 +1178,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.08759</v>
+        <v>0.034333</v>
       </c>
       <c r="N12">
-        <v>0.26277</v>
+        <v>0.102999</v>
       </c>
       <c r="O12">
-        <v>0.3835397697914812</v>
+        <v>0.1989865112882473</v>
       </c>
       <c r="P12">
-        <v>0.3835397697914812</v>
+        <v>0.1989865112882473</v>
       </c>
       <c r="Q12">
-        <v>0.05459458423000001</v>
+        <v>0.08942080205066666</v>
       </c>
       <c r="R12">
-        <v>0.4913512580700001</v>
+        <v>0.804787218456</v>
       </c>
       <c r="S12">
-        <v>0.07246808365891229</v>
+        <v>0.08970270302737733</v>
       </c>
       <c r="T12">
-        <v>0.07246808365891229</v>
+        <v>0.08970270302737733</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.604514666666667</v>
+      </c>
+      <c r="H13">
+        <v>7.813544</v>
+      </c>
+      <c r="I13">
+        <v>0.4507979080925544</v>
+      </c>
+      <c r="J13">
+        <v>0.4507979080925543</v>
+      </c>
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="L13">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G13">
-        <v>0.6232970000000001</v>
-      </c>
-      <c r="H13">
-        <v>1.869891</v>
-      </c>
-      <c r="I13">
-        <v>0.1889454220048966</v>
-      </c>
-      <c r="J13">
-        <v>0.1889454220048966</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
       <c r="M13">
-        <v>0.1206223333333333</v>
+        <v>0.01405133333333333</v>
       </c>
       <c r="N13">
-        <v>0.361867</v>
+        <v>0.042154</v>
       </c>
       <c r="O13">
-        <v>0.5281820066032421</v>
+        <v>0.08143843529398129</v>
       </c>
       <c r="P13">
-        <v>0.5281820066032421</v>
+        <v>0.08143843529398127</v>
       </c>
       <c r="Q13">
-        <v>0.07518353849966668</v>
+        <v>0.03659690375288889</v>
       </c>
       <c r="R13">
-        <v>0.6766518464970001</v>
+        <v>0.3293721337760001</v>
       </c>
       <c r="S13">
-        <v>0.09979757213304263</v>
+        <v>0.03671227626885761</v>
       </c>
       <c r="T13">
-        <v>0.09979757213304263</v>
+        <v>0.0367122762688576</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,87 +1275,87 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.6232970000000001</v>
+        <v>0.4289456666666667</v>
       </c>
       <c r="H14">
-        <v>1.869891</v>
+        <v>1.286837</v>
       </c>
       <c r="I14">
-        <v>0.1889454220048966</v>
+        <v>0.07424331745698218</v>
       </c>
       <c r="J14">
-        <v>0.1889454220048966</v>
+        <v>0.07424331745698218</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.0007876666666666665</v>
+        <v>0.1206223333333333</v>
       </c>
       <c r="N14">
-        <v>0.002363</v>
+        <v>0.361867</v>
       </c>
       <c r="O14">
-        <v>0.003449040895145069</v>
+        <v>0.6991004949596035</v>
       </c>
       <c r="P14">
-        <v>0.003449040895145069</v>
+        <v>0.6991004949596034</v>
       </c>
       <c r="Q14">
-        <v>0.0004909502703333334</v>
+        <v>0.05174042718655555</v>
       </c>
       <c r="R14">
-        <v>0.004418552433</v>
+        <v>0.465663844679</v>
       </c>
       <c r="S14">
-        <v>0.0006516804874453312</v>
+        <v>0.05190353998161921</v>
       </c>
       <c r="T14">
-        <v>0.0006516804874453312</v>
+        <v>0.0519035399816192</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6232970000000001</v>
+        <v>0.4289456666666667</v>
       </c>
       <c r="H15">
-        <v>1.869891</v>
+        <v>1.286837</v>
       </c>
       <c r="I15">
-        <v>0.1889454220048966</v>
+        <v>0.07424331745698218</v>
       </c>
       <c r="J15">
-        <v>0.1889454220048966</v>
+        <v>0.07424331745698218</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,33 +1364,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.01905733333333333</v>
+        <v>0.003532666666666667</v>
       </c>
       <c r="N15">
-        <v>0.057172</v>
+        <v>0.010598</v>
       </c>
       <c r="O15">
-        <v>0.08344839867001012</v>
+        <v>0.02047455845816799</v>
       </c>
       <c r="P15">
-        <v>0.08344839867001012</v>
+        <v>0.02047455845816799</v>
       </c>
       <c r="Q15">
-        <v>0.01187837869466667</v>
+        <v>0.001515322058444444</v>
       </c>
       <c r="R15">
-        <v>0.106905408252</v>
+        <v>0.013637898526</v>
       </c>
       <c r="S15">
-        <v>0.01576719290233791</v>
+        <v>0.001520099143401306</v>
       </c>
       <c r="T15">
-        <v>0.01576719290233791</v>
+        <v>0.001520099143401306</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,25 +1399,25 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.6232970000000001</v>
+        <v>0.4289456666666667</v>
       </c>
       <c r="H16">
-        <v>1.869891</v>
+        <v>1.286837</v>
       </c>
       <c r="I16">
-        <v>0.1889454220048966</v>
+        <v>0.07424331745698218</v>
       </c>
       <c r="J16">
-        <v>0.1889454220048966</v>
+        <v>0.07424331745698218</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.0003153333333333334</v>
+        <v>0.034333</v>
       </c>
       <c r="N16">
-        <v>0.0009460000000000001</v>
+        <v>0.102999</v>
       </c>
       <c r="O16">
-        <v>0.001380784040121556</v>
+        <v>0.1989865112882473</v>
       </c>
       <c r="P16">
-        <v>0.001380784040121556</v>
+        <v>0.1989865112882473</v>
       </c>
       <c r="Q16">
-        <v>0.0001965463206666667</v>
+        <v>0.01472699157366666</v>
       </c>
       <c r="R16">
-        <v>0.001768916886</v>
+        <v>0.132542924163</v>
       </c>
       <c r="S16">
-        <v>0.0002608928231583934</v>
+        <v>0.01477341872723071</v>
       </c>
       <c r="T16">
-        <v>0.0002608928231583934</v>
+        <v>0.01477341872723071</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3098866666666666</v>
+        <v>0.4289456666666667</v>
       </c>
       <c r="H17">
-        <v>0.9296599999999999</v>
+        <v>1.286837</v>
       </c>
       <c r="I17">
-        <v>0.09393863119351453</v>
+        <v>0.07424331745698218</v>
       </c>
       <c r="J17">
-        <v>0.09393863119351453</v>
+        <v>0.07424331745698218</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.08759</v>
+        <v>0.01405133333333333</v>
       </c>
       <c r="N17">
-        <v>0.26277</v>
+        <v>0.042154</v>
       </c>
       <c r="O17">
-        <v>0.3835397697914812</v>
+        <v>0.08143843529398129</v>
       </c>
       <c r="P17">
-        <v>0.3835397697914812</v>
+        <v>0.08143843529398127</v>
       </c>
       <c r="Q17">
-        <v>0.02714297313333333</v>
+        <v>0.006027258544222223</v>
       </c>
       <c r="R17">
-        <v>0.2442867582</v>
+        <v>0.054245326898</v>
       </c>
       <c r="S17">
-        <v>0.03602920098248742</v>
+        <v>0.006046259604730955</v>
       </c>
       <c r="T17">
-        <v>0.03602920098248742</v>
+        <v>0.006046259604730954</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3098866666666666</v>
+        <v>1.476162666666667</v>
       </c>
       <c r="H18">
-        <v>0.9296599999999999</v>
+        <v>4.428488</v>
       </c>
       <c r="I18">
-        <v>0.09393863119351453</v>
+        <v>0.2554990573308322</v>
       </c>
       <c r="J18">
-        <v>0.09393863119351453</v>
+        <v>0.2554990573308322</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,27 +1556,27 @@
         <v>0.361867</v>
       </c>
       <c r="O18">
-        <v>0.5281820066032421</v>
+        <v>0.6991004949596035</v>
       </c>
       <c r="P18">
-        <v>0.5281820066032421</v>
+        <v>0.6991004949596034</v>
       </c>
       <c r="Q18">
-        <v>0.03737925280222222</v>
+        <v>0.1780581852328889</v>
       </c>
       <c r="R18">
-        <v>0.33641327522</v>
+        <v>1.602523667096</v>
       </c>
       <c r="S18">
-        <v>0.04961669472135242</v>
+        <v>0.1786195174416969</v>
       </c>
       <c r="T18">
-        <v>0.04961669472135242</v>
+        <v>0.1786195174416969</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3098866666666666</v>
+        <v>1.476162666666667</v>
       </c>
       <c r="H19">
-        <v>0.9296599999999999</v>
+        <v>4.428488</v>
       </c>
       <c r="I19">
-        <v>0.09393863119351453</v>
+        <v>0.2554990573308322</v>
       </c>
       <c r="J19">
-        <v>0.09393863119351453</v>
+        <v>0.2554990573308322</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1612,33 +1612,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.0007876666666666665</v>
+        <v>0.003532666666666667</v>
       </c>
       <c r="N19">
-        <v>0.002363</v>
+        <v>0.010598</v>
       </c>
       <c r="O19">
-        <v>0.003449040895145069</v>
+        <v>0.02047455845816799</v>
       </c>
       <c r="P19">
-        <v>0.003449040895145069</v>
+        <v>0.02047455845816799</v>
       </c>
       <c r="Q19">
-        <v>0.0002440873977777777</v>
+        <v>0.005214790647111111</v>
       </c>
       <c r="R19">
-        <v>0.002196786579999999</v>
+        <v>0.046933115824</v>
       </c>
       <c r="S19">
-        <v>0.0003239981806203819</v>
+        <v>0.005231230385326939</v>
       </c>
       <c r="T19">
-        <v>0.0003239981806203819</v>
+        <v>0.005231230385326938</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1656,51 +1656,51 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3098866666666666</v>
+        <v>1.476162666666667</v>
       </c>
       <c r="H20">
-        <v>0.9296599999999999</v>
+        <v>4.428488</v>
       </c>
       <c r="I20">
-        <v>0.09393863119351453</v>
+        <v>0.2554990573308322</v>
       </c>
       <c r="J20">
-        <v>0.09393863119351453</v>
+        <v>0.2554990573308322</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.01905733333333333</v>
+        <v>0.034333</v>
       </c>
       <c r="N20">
-        <v>0.057172</v>
+        <v>0.102999</v>
       </c>
       <c r="O20">
-        <v>0.08344839867001012</v>
+        <v>0.1989865112882473</v>
       </c>
       <c r="P20">
-        <v>0.08344839867001012</v>
+        <v>0.1989865112882473</v>
       </c>
       <c r="Q20">
-        <v>0.005905613502222222</v>
+        <v>0.05068109283466665</v>
       </c>
       <c r="R20">
-        <v>0.05315052151999999</v>
+        <v>0.4561298355119999</v>
       </c>
       <c r="S20">
-        <v>0.007839028346351449</v>
+        <v>0.05084086605569818</v>
       </c>
       <c r="T20">
-        <v>0.007839028346351449</v>
+        <v>0.05084086605569818</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1718,356 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3098866666666666</v>
+        <v>1.476162666666667</v>
       </c>
       <c r="H21">
-        <v>0.9296599999999999</v>
+        <v>4.428488</v>
       </c>
       <c r="I21">
-        <v>0.09393863119351453</v>
+        <v>0.2554990573308322</v>
       </c>
       <c r="J21">
-        <v>0.09393863119351453</v>
+        <v>0.2554990573308322</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.0003153333333333334</v>
+        <v>0.01405133333333333</v>
       </c>
       <c r="N21">
-        <v>0.0009460000000000001</v>
+        <v>0.042154</v>
       </c>
       <c r="O21">
-        <v>0.001380784040121556</v>
+        <v>0.08143843529398129</v>
       </c>
       <c r="P21">
-        <v>0.001380784040121556</v>
+        <v>0.08143843529398127</v>
       </c>
       <c r="Q21">
-        <v>9.771759555555555E-05</v>
+        <v>0.02074205368355556</v>
       </c>
       <c r="R21">
-        <v>0.00087945836</v>
+        <v>0.186678483152</v>
       </c>
       <c r="S21">
-        <v>0.0001297089627028698</v>
+        <v>0.02080744344811019</v>
       </c>
       <c r="T21">
-        <v>0.0001297089627028698</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1.642757</v>
-      </c>
-      <c r="H22">
-        <v>4.928271</v>
-      </c>
-      <c r="I22">
-        <v>0.4979831679223512</v>
-      </c>
-      <c r="J22">
-        <v>0.4979831679223513</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M22">
-        <v>0.08759</v>
-      </c>
-      <c r="N22">
-        <v>0.26277</v>
-      </c>
-      <c r="O22">
-        <v>0.3835397697914812</v>
-      </c>
-      <c r="P22">
-        <v>0.3835397697914812</v>
-      </c>
-      <c r="Q22">
-        <v>0.14388908563</v>
-      </c>
-      <c r="R22">
-        <v>1.29500177067</v>
-      </c>
-      <c r="S22">
-        <v>0.1909963495849711</v>
-      </c>
-      <c r="T22">
-        <v>0.1909963495849711</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1.642757</v>
-      </c>
-      <c r="H23">
-        <v>4.928271</v>
-      </c>
-      <c r="I23">
-        <v>0.4979831679223512</v>
-      </c>
-      <c r="J23">
-        <v>0.4979831679223513</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>0.1206223333333333</v>
-      </c>
-      <c r="N23">
-        <v>0.361867</v>
-      </c>
-      <c r="O23">
-        <v>0.5281820066032421</v>
-      </c>
-      <c r="P23">
-        <v>0.5281820066032421</v>
-      </c>
-      <c r="Q23">
-        <v>0.1981531824396666</v>
-      </c>
-      <c r="R23">
-        <v>1.783378641957</v>
-      </c>
-      <c r="S23">
-        <v>0.2630257488878667</v>
-      </c>
-      <c r="T23">
-        <v>0.2630257488878667</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1.642757</v>
-      </c>
-      <c r="H24">
-        <v>4.928271</v>
-      </c>
-      <c r="I24">
-        <v>0.4979831679223512</v>
-      </c>
-      <c r="J24">
-        <v>0.4979831679223513</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M24">
-        <v>0.0007876666666666665</v>
-      </c>
-      <c r="N24">
-        <v>0.002363</v>
-      </c>
-      <c r="O24">
-        <v>0.003449040895145069</v>
-      </c>
-      <c r="P24">
-        <v>0.003449040895145069</v>
-      </c>
-      <c r="Q24">
-        <v>0.001293944930333333</v>
-      </c>
-      <c r="R24">
-        <v>0.011645504373</v>
-      </c>
-      <c r="S24">
-        <v>0.001717564311258084</v>
-      </c>
-      <c r="T24">
-        <v>0.001717564311258084</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1.642757</v>
-      </c>
-      <c r="H25">
-        <v>4.928271</v>
-      </c>
-      <c r="I25">
-        <v>0.4979831679223512</v>
-      </c>
-      <c r="J25">
-        <v>0.4979831679223513</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M25">
-        <v>0.01905733333333333</v>
-      </c>
-      <c r="N25">
-        <v>0.057172</v>
-      </c>
-      <c r="O25">
-        <v>0.08344839867001012</v>
-      </c>
-      <c r="P25">
-        <v>0.08344839867001012</v>
-      </c>
-      <c r="Q25">
-        <v>0.03130656773466666</v>
-      </c>
-      <c r="R25">
-        <v>0.281759109612</v>
-      </c>
-      <c r="S25">
-        <v>0.04155589792773896</v>
-      </c>
-      <c r="T25">
-        <v>0.04155589792773896</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1.642757</v>
-      </c>
-      <c r="H26">
-        <v>4.928271</v>
-      </c>
-      <c r="I26">
-        <v>0.4979831679223512</v>
-      </c>
-      <c r="J26">
-        <v>0.4979831679223513</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.0003153333333333334</v>
-      </c>
-      <c r="N26">
-        <v>0.0009460000000000001</v>
-      </c>
-      <c r="O26">
-        <v>0.001380784040121556</v>
-      </c>
-      <c r="P26">
-        <v>0.001380784040121556</v>
-      </c>
-      <c r="Q26">
-        <v>0.0005180160406666667</v>
-      </c>
-      <c r="R26">
-        <v>0.004662144366</v>
-      </c>
-      <c r="S26">
-        <v>0.0006876072105163553</v>
-      </c>
-      <c r="T26">
-        <v>0.0006876072105163553</v>
+        <v>0.02080744344811019</v>
       </c>
     </row>
   </sheetData>
